--- a/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_001/summary_statistics.xlsx
+++ b/Cluster_analysis/graph/frequency_analysis_day6_behavior/behavior_Exp/segment_001/summary_statistics.xlsx
@@ -585,40 +585,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.009669889963321106</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="C3" t="n">
-        <v>1005.232399240331</v>
+        <v>184.9629933504011</v>
       </c>
       <c r="D3" t="n">
-        <v>18596.76726988233</v>
+        <v>549.1051864705988</v>
       </c>
       <c r="E3" t="n">
-        <v>7.332949188908436e-07</v>
+        <v>9.103519605180059e-07</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005549380238540361</v>
+        <v>0.0004509059748443604</v>
       </c>
       <c r="G3" t="n">
-        <v>21.91166666666667</v>
+        <v>2.733333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>10.88</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="I3" t="n">
-        <v>1.35</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J3" t="n">
-        <v>1.302306292395694e-16</v>
+        <v>0.1011188730397971</v>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0.5889050083674593</v>
       </c>
       <c r="L3" t="n">
-        <v>3.941208826794529</v>
+        <v>1.38503957438147</v>
       </c>
       <c r="M3" t="n">
-        <v>-1.691520529000933</v>
+        <v>-0.9283484843917422</v>
       </c>
       <c r="N3" t="n">
         <v>1</v>
@@ -627,13 +627,13 @@
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="Q3" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="R3" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4">
@@ -643,40 +643,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.008160763666819613</v>
+        <v>0.01731225696445015</v>
       </c>
       <c r="C4" t="n">
-        <v>161.1776959912804</v>
+        <v>119.695671690046</v>
       </c>
       <c r="D4" t="n">
-        <v>2826.384750496357</v>
+        <v>276.4962908688016</v>
       </c>
       <c r="E4" t="n">
-        <v>1.219282091019415e-06</v>
+        <v>1.277180053460107e-06</v>
       </c>
       <c r="F4" t="n">
-        <v>0.006447581122905872</v>
+        <v>0.0004991000470661707</v>
       </c>
       <c r="G4" t="n">
-        <v>28.59078962554951</v>
+        <v>5.34852004452322</v>
       </c>
       <c r="H4" t="n">
-        <v>6.193512187792883</v>
+        <v>1.197549286578766</v>
       </c>
       <c r="I4" t="n">
-        <v>1.920672551698352</v>
+        <v>0.747122540414543</v>
       </c>
       <c r="J4" t="n">
-        <v>1.005682326807306e-15</v>
+        <v>0.9289080092195909</v>
       </c>
       <c r="K4" t="n">
-        <v>8.42798361290732e-17</v>
+        <v>0.3810920148284322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.9136003971112727</v>
+        <v>1.493548958763223</v>
       </c>
       <c r="M4" t="n">
-        <v>0.426550314673843</v>
+        <v>0.6622198889941679</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -701,40 +701,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>736.4990414957759</v>
+        <v>29.40754902982868</v>
       </c>
       <c r="D5" t="n">
-        <v>12723.13321265489</v>
+        <v>159.4968947262242</v>
       </c>
       <c r="E5" t="n">
-        <v>1.088198993012468e-09</v>
+        <v>9.402204126964957e-10</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005596075033340467</v>
+        <v>3.370906817977835e-05</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>-2.464036162689244e-15</v>
+        <v>-1.156115114869216</v>
       </c>
       <c r="K5" t="n">
-        <v>0.9999999999999998</v>
+        <v>0.1207336371971952</v>
       </c>
       <c r="L5" t="n">
-        <v>2.583538924565236</v>
+        <v>-0.6759664977110683</v>
       </c>
       <c r="M5" t="n">
-        <v>-2.848328096243027</v>
+        <v>-2.812574593611202</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -743,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="Q5" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="R5" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6">
@@ -759,40 +759,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.003334444814938312</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>868.9433145638184</v>
+        <v>114.6844709923571</v>
       </c>
       <c r="D6" t="n">
-        <v>16501.94895922997</v>
+        <v>317.3032401035359</v>
       </c>
       <c r="E6" t="n">
-        <v>5.635171592563152e-08</v>
+        <v>9.767934406668923e-08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002124529474644932</v>
+        <v>0.0001407415119970398</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>6.775</v>
+        <v>1.1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-2.298187574815929e-16</v>
+        <v>-0.6146401412466362</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.2685178411878182</v>
       </c>
       <c r="L6" t="n">
-        <v>3.338676856106928</v>
+        <v>0.06875742458779951</v>
       </c>
       <c r="M6" t="n">
-        <v>-1.912486448584394</v>
+        <v>-1.305522664495545</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -801,13 +801,13 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="Q6" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="R6" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -817,40 +817,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006668889629876625</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>985.4964300246247</v>
+        <v>158.4935826773678</v>
       </c>
       <c r="D7" t="n">
-        <v>18095.75029974967</v>
+        <v>467.8202562615976</v>
       </c>
       <c r="E7" t="n">
-        <v>1.963190622711298e-07</v>
+        <v>3.541075030476205e-07</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003528862414357102</v>
+        <v>0.0003019076706047758</v>
       </c>
       <c r="G7" t="n">
-        <v>9.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.1</v>
+        <v>2.05</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.232018081344622e-16</v>
+        <v>-0.2520610223967769</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0.4650040365567464</v>
       </c>
       <c r="L7" t="n">
-        <v>3.675459911115994</v>
+        <v>0.9835748737846892</v>
       </c>
       <c r="M7" t="n">
-        <v>-1.602111174983568</v>
+        <v>-0.9676152083344068</v>
       </c>
       <c r="N7" t="n">
         <v>1</v>
@@ -859,13 +859,13 @@
         <v>1</v>
       </c>
       <c r="P7" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="Q7" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="R7" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
@@ -875,40 +875,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01333777925975325</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1098.915772810629</v>
+        <v>209.4299909209807</v>
       </c>
       <c r="D8" t="n">
-        <v>20643.84356843236</v>
+        <v>759.6633236708888</v>
       </c>
       <c r="E8" t="n">
-        <v>9.359891386183116e-07</v>
+        <v>1.165057818276562e-06</v>
       </c>
       <c r="F8" t="n">
-        <v>0.006234538152238978</v>
+        <v>0.0005571874893064133</v>
       </c>
       <c r="G8" t="n">
-        <v>38.225</v>
+        <v>2.95</v>
       </c>
       <c r="H8" t="n">
-        <v>12.125</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>6.254861028365003e-16</v>
+        <v>0.6893941287553494</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0.8756161943840635</v>
       </c>
       <c r="L8" t="n">
-        <v>4.398422930242155</v>
+        <v>2.910395807308562</v>
       </c>
       <c r="M8" t="n">
-        <v>-1.3900086892999</v>
+        <v>-0.6443826884868854</v>
       </c>
       <c r="N8" t="n">
         <v>1</v>
@@ -917,13 +917,13 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="Q8" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="R8" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
@@ -933,40 +933,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03667889296432143</v>
+        <v>0.04291845493562232</v>
       </c>
       <c r="C9" t="n">
-        <v>1383.046743846433</v>
+        <v>616.5230960289482</v>
       </c>
       <c r="D9" t="n">
-        <v>27622.23521228047</v>
+        <v>1296.694131629864</v>
       </c>
       <c r="E9" t="n">
-        <v>7.025038567139124e-06</v>
+        <v>7.294109062789282e-06</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03973974850281362</v>
+        <v>0.002617061251780242</v>
       </c>
       <c r="G9" t="n">
-        <v>97.59999999999999</v>
+        <v>21.6</v>
       </c>
       <c r="H9" t="n">
-        <v>36.7</v>
+        <v>5.1</v>
       </c>
       <c r="I9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>4.245723849556851e-15</v>
+        <v>2.646021871368876</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>1.383727144085443</v>
       </c>
       <c r="L9" t="n">
-        <v>6.684649085958561</v>
+        <v>4.173822648286015</v>
       </c>
       <c r="M9" t="n">
-        <v>-1.006399609890604</v>
+        <v>1.040517100015583</v>
       </c>
       <c r="N9" t="n">
         <v>1</v>
@@ -975,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
       <c r="Q9" t="n">
-        <v>2998</v>
+        <v>232</v>
       </c>
       <c r="R9" t="n">
-        <v>2999</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
